--- a/biology/Médecine/Adolphe_Vorstius/Adolphe_Vorstius.xlsx
+++ b/biology/Médecine/Adolphe_Vorstius/Adolphe_Vorstius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolphe Vorst, latinisé en Adolphus Vorstius, né le 18 novembre 1597 à Delft et mort le 9 octobre 1663 à Leyde, est un médecin et botaniste néerlandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’Aelius-Everhard Vorst, il résolut, ayant achevé avec beaucoup de succès ses humanités et sa philosophie à l’école latine de Leyde, de se consacrer au ministère évangélique, avant de se décider, d’après les conseils de son père, à suivre la carrière médicale.
 Entré, en 1612, à l’université de Leyde, il fréquenta, pendant sept ans, les cours de l’académie, apprenant le grec sous Henricus Bredius (eo) et Bonaventure de Smet, étudiant Homère et Lucien, assistant également aux conférences de Peter van der Kun, Daniel Heinsius, et employant l’orientaliste Thomas van Erpe pour l’arabe. Ces études linguistiques avaient pour but d’élargir ses possibilités d’étude de la botanique.
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Recognitio versionis Ioannis Obsapaei aphorismorum Hippocratis, Leyde, 1628.
 Oratio funerbis in obitum Gilberti Iacchaei cum variorum epicediis, Leyde, 1628.
